--- a/Product & Sprint Backlog Doc.xlsx
+++ b/Product & Sprint Backlog Doc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capgemini Training\Online Wallet\Sprint-2\New folder\OnlineWallet-Documentation-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo\OnlineWallet-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95EFCB8-D63F-4D0A-8AB1-F6CEBF66D0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BB02D3-7057-4172-AB66-A992CF74FD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="818" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="224">
   <si>
     <t>MoSCoW ID</t>
   </si>
@@ -706,12 +706,6 @@
   </si>
   <si>
     <t>Integrated zuul with the eureka server</t>
-  </si>
-  <si>
-    <t>Junit testing for spring</t>
-  </si>
-  <si>
-    <t>Partially Completed</t>
   </si>
   <si>
     <t>Component sends the details to register user service</t>
@@ -5083,7 +5077,7 @@
   <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7383,7 +7377,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E67" s="90" t="s">
         <v>34</v>
@@ -7595,7 +7589,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E73" s="89" t="s">
         <v>34</v>
@@ -8164,26 +8158,16 @@
       <c r="O89" s="63"/>
       <c r="P89" s="63"/>
     </row>
-    <row r="90" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="89">
-        <v>1</v>
-      </c>
-      <c r="B90" s="73" t="s">
-        <v>39</v>
-      </c>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="89"/>
+      <c r="B90" s="73"/>
       <c r="C90" s="92"/>
-      <c r="D90" s="150" t="s">
-        <v>222</v>
-      </c>
-      <c r="E90" s="89" t="s">
-        <v>148</v>
-      </c>
+      <c r="D90" s="150"/>
+      <c r="E90" s="89"/>
       <c r="F90" s="92"/>
       <c r="G90" s="92"/>
       <c r="H90" s="92"/>
-      <c r="I90" s="89" t="s">
-        <v>223</v>
-      </c>
+      <c r="I90" s="89"/>
       <c r="J90" s="92"/>
       <c r="K90" s="61"/>
       <c r="L90" s="71"/>
